--- a/Temp_Results/Communities_pivot.xlsx
+++ b/Temp_Results/Communities_pivot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clovas/Documents/COCA_19/Temp_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC99200-0A27-C241-8D5F-01EE089A531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93D3A9-27AD-C84E-BBCF-E81C7D4D957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35860" yWindow="1400" windowWidth="27240" windowHeight="16360" xr2:uid="{83FBD793-9033-DE44-83CB-849422E373FD}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId3"/>
+    <pivotCache cacheId="45" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -653,8 +653,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="STATE">
@@ -677,7 +677,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -731,8 +731,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="STATUS">
@@ -755,7 +755,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -809,8 +809,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="PORT">
@@ -833,7 +833,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C687D42-C478-9849-8A91-33C5B1DBB641}" name="PivotTable10" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="STATE">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C687D42-C478-9849-8A91-33C5B1DBB641}" name="PivotTable10" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="STATE">
   <location ref="A1:A13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2451,7 +2451,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="STATE" xr10:uid="{4109CAEF-9CAC-5340-BF7F-7F7AF6F338A2}" cache="Slicer_STATE" caption="STATE" style="SlicerStyleDark5" rowHeight="251883"/>
   <slicer name="STATUS" xr10:uid="{3BC9F6B0-26BD-3041-800F-55B2EB8D932F}" cache="Slicer_STATUS" caption="STATUS" style="SlicerStyleDark4" rowHeight="251883"/>
-  <slicer name="PORT" xr10:uid="{593E76CB-B421-244C-A1A3-9E702758FF13}" cache="Slicer_PORT" caption="PORT" style="SlicerStyleDark6" rowHeight="251883"/>
+  <slicer name="PORT" xr10:uid="{593E76CB-B421-244C-A1A3-9E702758FF13}" cache="Slicer_PORT" caption="PORT" startItem="43" style="SlicerStyleDark6" rowHeight="251883"/>
 </slicers>
 </file>
 

--- a/Temp_Results/Communities_pivot.xlsx
+++ b/Temp_Results/Communities_pivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clovas/Documents/COCA_19/Temp_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93D3A9-27AD-C84E-BBCF-E81C7D4D957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C43D9-439A-8C43-A3CD-284E42354C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35860" yWindow="1400" windowWidth="27240" windowHeight="16360" xr2:uid="{83FBD793-9033-DE44-83CB-849422E373FD}"/>
+    <workbookView xWindow="1680" yWindow="8300" windowWidth="14400" windowHeight="9660" xr2:uid="{83FBD793-9033-DE44-83CB-849422E373FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId3"/>
+    <pivotCache cacheId="51" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="175">
   <si>
     <t>STATE</t>
   </si>
@@ -1981,184 +1981,184 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C687D42-C478-9849-8A91-33C5B1DBB641}" name="PivotTable10" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="STATE">
-  <location ref="A1:A13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C687D42-C478-9849-8A91-33C5B1DBB641}" name="PivotTable10" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="STATE">
+  <location ref="A1:A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="158">
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="100"/>
+        <item h="1" sd="0" x="24"/>
+        <item h="1" sd="0" x="25"/>
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="113"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="26"/>
+        <item h="1" sd="0" x="27"/>
+        <item h="1" sd="0" x="28"/>
+        <item h="1" sd="0" x="29"/>
+        <item h="1" sd="0" x="114"/>
+        <item h="1" sd="0" x="30"/>
+        <item h="1" sd="0" x="31"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="32"/>
+        <item h="1" sd="0" x="115"/>
+        <item h="1" sd="0" x="33"/>
+        <item h="1" sd="0" x="34"/>
+        <item h="1" sd="0" x="35"/>
+        <item h="1" sd="0" x="116"/>
+        <item h="1" sd="0" x="117"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="118"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="36"/>
+        <item h="1" sd="0" x="37"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="119"/>
+        <item h="1" sd="0" x="38"/>
+        <item h="1" sd="0" x="39"/>
+        <item h="1" sd="0" x="40"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="41"/>
+        <item h="1" sd="0" x="42"/>
+        <item h="1" sd="0" x="43"/>
+        <item h="1" sd="0" x="44"/>
+        <item h="1" sd="0" x="45"/>
+        <item h="1" sd="0" x="120"/>
+        <item h="1" sd="0" x="46"/>
+        <item h="1" sd="0" x="47"/>
+        <item h="1" sd="0" x="121"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="48"/>
+        <item h="1" sd="0" x="122"/>
+        <item h="1" sd="0" x="123"/>
+        <item h="1" sd="0" x="49"/>
+        <item h="1" sd="0" x="124"/>
+        <item h="1" sd="0" x="125"/>
+        <item h="1" sd="0" x="50"/>
+        <item h="1" sd="0" x="126"/>
+        <item h="1" sd="0" x="51"/>
+        <item h="1" sd="0" x="127"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="128"/>
+        <item h="1" sd="0" x="129"/>
+        <item h="1" sd="0" x="52"/>
+        <item h="1" sd="0" x="53"/>
+        <item h="1" sd="0" x="54"/>
+        <item h="1" sd="0" x="55"/>
+        <item h="1" sd="0" x="56"/>
+        <item h="1" sd="0" x="57"/>
+        <item h="1" sd="0" x="58"/>
+        <item h="1" sd="0" x="59"/>
+        <item h="1" sd="0" x="60"/>
+        <item h="1" sd="0" x="130"/>
+        <item h="1" sd="0" x="131"/>
+        <item h="1" sd="0" x="61"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="62"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="132"/>
+        <item h="1" sd="0" x="63"/>
+        <item h="1" sd="0" x="64"/>
+        <item h="1" sd="0" x="133"/>
+        <item h="1" sd="0" x="65"/>
+        <item h="1" sd="0" x="66"/>
+        <item h="1" sd="0" x="134"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="67"/>
+        <item h="1" sd="0" x="68"/>
+        <item h="1" sd="0" x="135"/>
+        <item h="1" sd="0" x="69"/>
+        <item h="1" sd="0" x="70"/>
+        <item h="1" sd="0" x="71"/>
+        <item h="1" sd="0" x="72"/>
+        <item h="1" sd="0" x="13"/>
+        <item h="1" sd="0" x="73"/>
+        <item h="1" sd="0" x="74"/>
+        <item h="1" sd="0" x="75"/>
+        <item h="1" sd="0" x="76"/>
+        <item h="1" sd="0" x="14"/>
+        <item h="1" sd="0" x="136"/>
+        <item h="1" sd="0" x="137"/>
+        <item h="1" sd="0" x="138"/>
+        <item h="1" sd="0" x="77"/>
+        <item h="1" sd="0" x="78"/>
+        <item h="1" sd="0" x="79"/>
+        <item h="1" sd="0" x="15"/>
+        <item h="1" sd="0" x="80"/>
+        <item h="1" sd="0" x="139"/>
+        <item h="1" sd="0" x="140"/>
+        <item h="1" sd="0" x="81"/>
+        <item h="1" sd="0" x="16"/>
+        <item h="1" sd="0" x="141"/>
+        <item h="1" sd="0" x="82"/>
+        <item h="1" sd="0" x="142"/>
+        <item h="1" sd="0" x="143"/>
+        <item h="1" sd="0" x="83"/>
+        <item h="1" sd="0" x="84"/>
+        <item h="1" sd="0" x="85"/>
+        <item h="1" sd="0" x="86"/>
+        <item h="1" sd="0" x="87"/>
+        <item h="1" sd="0" x="88"/>
+        <item h="1" sd="0" x="89"/>
+        <item h="1" sd="0" x="90"/>
+        <item h="1" sd="0" x="144"/>
+        <item h="1" sd="0" x="91"/>
+        <item h="1" sd="0" x="17"/>
+        <item h="1" sd="0" x="92"/>
+        <item h="1" sd="0" x="145"/>
+        <item h="1" sd="0" x="93"/>
+        <item h="1" sd="0" x="146"/>
+        <item h="1" sd="0" x="94"/>
+        <item h="1" sd="0" x="147"/>
+        <item h="1" sd="0" x="95"/>
+        <item h="1" sd="0" x="148"/>
+        <item h="1" sd="0" x="96"/>
+        <item h="1" sd="0" x="97"/>
+        <item h="1" sd="0" x="149"/>
+        <item h="1" sd="0" x="98"/>
+        <item h="1" sd="0" x="99"/>
+        <item h="1" sd="0" x="18"/>
+        <item h="1" sd="0" x="19"/>
+        <item h="1" sd="0" x="100"/>
         <item sd="0" x="101"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="112"/>
+        <item h="1" sd="0" x="150"/>
+        <item h="1" sd="0" x="151"/>
+        <item h="1" sd="0" x="102"/>
+        <item h="1" sd="0" x="152"/>
+        <item h="1" sd="0" x="153"/>
+        <item h="1" sd="0" x="103"/>
+        <item h="1" sd="0" x="104"/>
+        <item h="1" sd="0" x="105"/>
+        <item h="1" sd="0" x="154"/>
+        <item h="1" sd="0" x="20"/>
+        <item h="1" sd="0" x="106"/>
+        <item h="1" sd="0" x="155"/>
+        <item h="1" sd="0" x="107"/>
+        <item h="1" sd="0" x="108"/>
+        <item h="1" sd="0" x="109"/>
+        <item h="1" sd="0" x="156"/>
+        <item h="1" sd="0" x="21"/>
+        <item h="1" sd="0" x="22"/>
+        <item h="1" sd="0" x="110"/>
+        <item h="1" sd="0" x="111"/>
+        <item h="1" sd="0" x="23"/>
+        <item h="1" sd="0" x="112"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item sd="0" x="4"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="6"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="6"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -2176,39 +2176,9 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -2238,16 +2208,16 @@
     <tabular pivotCacheId="657271893">
       <items count="11">
         <i x="4" s="1"/>
-        <i x="8" s="1"/>
-        <i x="5" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="7" s="1"/>
-        <i x="9" s="1"/>
-        <i x="1" s="1"/>
-        <i x="0" s="1"/>
-        <i x="10" s="1"/>
-        <i x="6" s="1"/>
+        <i x="2"/>
+        <i x="8" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="3" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="1" nd="1"/>
+        <i x="0" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="6" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -2262,9 +2232,9 @@
   <data>
     <tabular pivotCacheId="657271893">
       <items count="3">
-        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -2284,163 +2254,163 @@
   <data>
     <tabular pivotCacheId="657271893">
       <items count="157">
-        <i x="24" s="1"/>
-        <i x="25" s="1"/>
-        <i x="0" s="1"/>
-        <i x="113" s="1"/>
-        <i x="1" s="1"/>
-        <i x="26" s="1"/>
-        <i x="27" s="1"/>
-        <i x="28" s="1"/>
-        <i x="29" s="1"/>
-        <i x="114" s="1"/>
-        <i x="30" s="1"/>
-        <i x="31" s="1"/>
-        <i x="2" s="1"/>
-        <i x="32" s="1"/>
-        <i x="115" s="1"/>
-        <i x="33" s="1"/>
-        <i x="34" s="1"/>
-        <i x="35" s="1"/>
-        <i x="116" s="1"/>
-        <i x="117" s="1"/>
-        <i x="3" s="1"/>
-        <i x="118" s="1"/>
-        <i x="4" s="1"/>
-        <i x="36" s="1"/>
-        <i x="37" s="1"/>
-        <i x="5" s="1"/>
-        <i x="119" s="1"/>
-        <i x="38" s="1"/>
-        <i x="39" s="1"/>
-        <i x="40" s="1"/>
-        <i x="6" s="1"/>
-        <i x="41" s="1"/>
-        <i x="42" s="1"/>
-        <i x="43" s="1"/>
-        <i x="44" s="1"/>
-        <i x="45" s="1"/>
-        <i x="120" s="1"/>
-        <i x="46" s="1"/>
-        <i x="47" s="1"/>
-        <i x="121" s="1"/>
-        <i x="7" s="1"/>
-        <i x="48" s="1"/>
-        <i x="122" s="1"/>
-        <i x="123" s="1"/>
-        <i x="49" s="1"/>
-        <i x="124" s="1"/>
-        <i x="125" s="1"/>
-        <i x="50" s="1"/>
-        <i x="126" s="1"/>
-        <i x="51" s="1"/>
-        <i x="127" s="1"/>
-        <i x="8" s="1"/>
-        <i x="9" s="1"/>
-        <i x="128" s="1"/>
-        <i x="129" s="1"/>
-        <i x="52" s="1"/>
-        <i x="53" s="1"/>
-        <i x="54" s="1"/>
-        <i x="55" s="1"/>
-        <i x="56" s="1"/>
-        <i x="57" s="1"/>
-        <i x="58" s="1"/>
-        <i x="59" s="1"/>
-        <i x="60" s="1"/>
-        <i x="130" s="1"/>
-        <i x="131" s="1"/>
-        <i x="61" s="1"/>
-        <i x="10" s="1"/>
-        <i x="62" s="1"/>
-        <i x="11" s="1"/>
-        <i x="132" s="1"/>
-        <i x="63" s="1"/>
-        <i x="64" s="1"/>
-        <i x="133" s="1"/>
-        <i x="65" s="1"/>
-        <i x="66" s="1"/>
-        <i x="134" s="1"/>
-        <i x="12" s="1"/>
-        <i x="67" s="1"/>
-        <i x="68" s="1"/>
-        <i x="135" s="1"/>
-        <i x="69" s="1"/>
-        <i x="70" s="1"/>
-        <i x="71" s="1"/>
-        <i x="72" s="1"/>
-        <i x="13" s="1"/>
-        <i x="73" s="1"/>
-        <i x="74" s="1"/>
-        <i x="75" s="1"/>
-        <i x="76" s="1"/>
-        <i x="14" s="1"/>
-        <i x="136" s="1"/>
-        <i x="137" s="1"/>
-        <i x="138" s="1"/>
-        <i x="77" s="1"/>
-        <i x="78" s="1"/>
-        <i x="79" s="1"/>
-        <i x="15" s="1"/>
-        <i x="80" s="1"/>
-        <i x="139" s="1"/>
-        <i x="140" s="1"/>
-        <i x="81" s="1"/>
-        <i x="16" s="1"/>
-        <i x="141" s="1"/>
-        <i x="82" s="1"/>
-        <i x="142" s="1"/>
-        <i x="143" s="1"/>
-        <i x="83" s="1"/>
-        <i x="84" s="1"/>
-        <i x="85" s="1"/>
-        <i x="86" s="1"/>
-        <i x="87" s="1"/>
-        <i x="88" s="1"/>
-        <i x="89" s="1"/>
-        <i x="90" s="1"/>
-        <i x="144" s="1"/>
-        <i x="91" s="1"/>
-        <i x="17" s="1"/>
-        <i x="92" s="1"/>
-        <i x="145" s="1"/>
-        <i x="93" s="1"/>
-        <i x="146" s="1"/>
-        <i x="94" s="1"/>
-        <i x="147" s="1"/>
-        <i x="95" s="1"/>
-        <i x="148" s="1"/>
-        <i x="96" s="1"/>
-        <i x="97" s="1"/>
-        <i x="149" s="1"/>
-        <i x="98" s="1"/>
-        <i x="99" s="1"/>
-        <i x="18" s="1"/>
-        <i x="19" s="1"/>
-        <i x="100" s="1"/>
+        <i x="6"/>
+        <i x="42"/>
+        <i x="124"/>
+        <i x="13"/>
+        <i x="14"/>
+        <i x="140"/>
         <i x="101" s="1"/>
-        <i x="150" s="1"/>
-        <i x="151" s="1"/>
-        <i x="102" s="1"/>
-        <i x="152" s="1"/>
-        <i x="153" s="1"/>
-        <i x="103" s="1"/>
-        <i x="104" s="1"/>
-        <i x="105" s="1"/>
-        <i x="154" s="1"/>
-        <i x="20" s="1"/>
-        <i x="106" s="1"/>
-        <i x="155" s="1"/>
-        <i x="107" s="1"/>
-        <i x="108" s="1"/>
-        <i x="109" s="1"/>
-        <i x="156" s="1"/>
-        <i x="21" s="1"/>
-        <i x="22" s="1"/>
-        <i x="110" s="1"/>
-        <i x="111" s="1"/>
-        <i x="23" s="1"/>
-        <i x="112" s="1"/>
+        <i x="24" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="0" nd="1"/>
+        <i x="113" nd="1"/>
+        <i x="1" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="114" nd="1"/>
+        <i x="30" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="2" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="115" nd="1"/>
+        <i x="33" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="35" nd="1"/>
+        <i x="116" nd="1"/>
+        <i x="117" nd="1"/>
+        <i x="3" nd="1"/>
+        <i x="118" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="37" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="119" nd="1"/>
+        <i x="38" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="41" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="120" nd="1"/>
+        <i x="46" nd="1"/>
+        <i x="47" nd="1"/>
+        <i x="121" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="122" nd="1"/>
+        <i x="123" nd="1"/>
+        <i x="49" nd="1"/>
+        <i x="125" nd="1"/>
+        <i x="50" nd="1"/>
+        <i x="126" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="127" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="128" nd="1"/>
+        <i x="129" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="53" nd="1"/>
+        <i x="54" nd="1"/>
+        <i x="55" nd="1"/>
+        <i x="56" nd="1"/>
+        <i x="57" nd="1"/>
+        <i x="58" nd="1"/>
+        <i x="59" nd="1"/>
+        <i x="60" nd="1"/>
+        <i x="130" nd="1"/>
+        <i x="131" nd="1"/>
+        <i x="61" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="62" nd="1"/>
+        <i x="11" nd="1"/>
+        <i x="132" nd="1"/>
+        <i x="63" nd="1"/>
+        <i x="64" nd="1"/>
+        <i x="133" nd="1"/>
+        <i x="65" nd="1"/>
+        <i x="66" nd="1"/>
+        <i x="134" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="67" nd="1"/>
+        <i x="68" nd="1"/>
+        <i x="135" nd="1"/>
+        <i x="69" nd="1"/>
+        <i x="70" nd="1"/>
+        <i x="71" nd="1"/>
+        <i x="72" nd="1"/>
+        <i x="73" nd="1"/>
+        <i x="74" nd="1"/>
+        <i x="75" nd="1"/>
+        <i x="76" nd="1"/>
+        <i x="136" nd="1"/>
+        <i x="137" nd="1"/>
+        <i x="138" nd="1"/>
+        <i x="77" nd="1"/>
+        <i x="78" nd="1"/>
+        <i x="79" nd="1"/>
+        <i x="15" nd="1"/>
+        <i x="80" nd="1"/>
+        <i x="139" nd="1"/>
+        <i x="81" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="141" nd="1"/>
+        <i x="82" nd="1"/>
+        <i x="142" nd="1"/>
+        <i x="143" nd="1"/>
+        <i x="83" nd="1"/>
+        <i x="84" nd="1"/>
+        <i x="85" nd="1"/>
+        <i x="86" nd="1"/>
+        <i x="87" nd="1"/>
+        <i x="88" nd="1"/>
+        <i x="89" nd="1"/>
+        <i x="90" nd="1"/>
+        <i x="144" nd="1"/>
+        <i x="91" nd="1"/>
+        <i x="17" nd="1"/>
+        <i x="92" nd="1"/>
+        <i x="145" nd="1"/>
+        <i x="93" nd="1"/>
+        <i x="146" nd="1"/>
+        <i x="94" nd="1"/>
+        <i x="147" nd="1"/>
+        <i x="95" nd="1"/>
+        <i x="148" nd="1"/>
+        <i x="96" nd="1"/>
+        <i x="97" nd="1"/>
+        <i x="149" nd="1"/>
+        <i x="98" nd="1"/>
+        <i x="99" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="19" nd="1"/>
+        <i x="100" nd="1"/>
+        <i x="150" nd="1"/>
+        <i x="151" nd="1"/>
+        <i x="102" nd="1"/>
+        <i x="152" nd="1"/>
+        <i x="153" nd="1"/>
+        <i x="103" nd="1"/>
+        <i x="104" nd="1"/>
+        <i x="105" nd="1"/>
+        <i x="154" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="106" nd="1"/>
+        <i x="155" nd="1"/>
+        <i x="107" nd="1"/>
+        <i x="108" nd="1"/>
+        <i x="109" nd="1"/>
+        <i x="156" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="22" nd="1"/>
+        <i x="110" nd="1"/>
+        <i x="111" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="112" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -2451,7 +2421,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="STATE" xr10:uid="{4109CAEF-9CAC-5340-BF7F-7F7AF6F338A2}" cache="Slicer_STATE" caption="STATE" style="SlicerStyleDark5" rowHeight="251883"/>
   <slicer name="STATUS" xr10:uid="{3BC9F6B0-26BD-3041-800F-55B2EB8D932F}" cache="Slicer_STATUS" caption="STATUS" style="SlicerStyleDark4" rowHeight="251883"/>
-  <slicer name="PORT" xr10:uid="{593E76CB-B421-244C-A1A3-9E702758FF13}" cache="Slicer_PORT" caption="PORT" startItem="43" style="SlicerStyleDark6" rowHeight="251883"/>
+  <slicer name="PORT" xr10:uid="{593E76CB-B421-244C-A1A3-9E702758FF13}" cache="Slicer_PORT" caption="PORT" style="SlicerStyleDark6" rowHeight="251883"/>
 </slicers>
 </file>
 
@@ -2767,7 +2737,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2793,7 +2763,7 @@
   <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,7 +2801,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -2844,9 +2814,6 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
         <v>152</v>
       </c>
@@ -2858,9 +2825,6 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
         <v>153</v>
       </c>
@@ -2872,9 +2836,6 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
         <v>154</v>
       </c>
@@ -2886,9 +2847,6 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
         <v>155</v>
       </c>
@@ -2900,9 +2858,6 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
         <v>156</v>
       </c>
@@ -2914,9 +2869,6 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
         <v>157</v>
       </c>
@@ -2928,9 +2880,6 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -2942,9 +2891,6 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" t="s">
         <v>158</v>
       </c>
@@ -2956,9 +2902,6 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -2970,9 +2913,6 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C13" t="s">
         <v>71</v>
       </c>
